--- a/raw_data/20200818_saline/20200818_Sensor3_Test_9.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_9.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F34B9-5A1A-4421-A75D-E2B4EE95E968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>7754.602753</v>
+        <v>7754.6027530000001</v>
       </c>
       <c r="B2" s="1">
-        <v>2.154056</v>
+        <v>2.1540560000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1145.600000</v>
+        <v>1145.5999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-254.420000</v>
+        <v>-254.42</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>7765.004355</v>
@@ -496,255 +912,255 @@
         <v>2.156946</v>
       </c>
       <c r="H2" s="1">
-        <v>1167.030000</v>
+        <v>1167.03</v>
       </c>
       <c r="I2" s="1">
-        <v>-213.660000</v>
+        <v>-213.66</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>7776.097379</v>
+        <v>7776.0973789999998</v>
       </c>
       <c r="L2" s="1">
-        <v>2.160027</v>
+        <v>2.1600269999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.190000</v>
+        <v>1193.19</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.174000</v>
+        <v>-148.17400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>7786.570405</v>
+        <v>7786.5704050000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.162936</v>
+        <v>2.1629360000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.522000</v>
+        <v>-126.52200000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>7796.913011</v>
+        <v>7796.9130109999996</v>
       </c>
       <c r="V2" s="1">
-        <v>2.165809</v>
+        <v>2.1658089999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1207.380000</v>
+        <v>1207.3800000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.061000</v>
+        <v>-106.06100000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>7806.997146</v>
+        <v>7806.9971459999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.168610</v>
+        <v>2.1686100000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.130200</v>
+        <v>-89.130200000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>7817.204963</v>
+        <v>7817.2049630000001</v>
       </c>
       <c r="AF2" s="1">
         <v>2.171446</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.767900</v>
+        <v>-84.767899999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>7827.288512</v>
+        <v>7827.2885120000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.174247</v>
+        <v>2.1742469999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.960100</v>
+        <v>-87.960099999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>7837.549749</v>
+        <v>7837.5497489999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.177097</v>
+        <v>2.1770969999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.390000</v>
+        <v>1234.3900000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.581000</v>
+        <v>-99.581000000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>7848.091716</v>
+        <v>7848.0917159999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.180025</v>
+        <v>2.1800250000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-118.480000</v>
+        <v>-118.48</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>7859.298790</v>
+        <v>7859.2987899999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.183139</v>
+        <v>2.1831390000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.360000</v>
+        <v>1252.3599999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-135.582000</v>
+        <v>-135.58199999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>7870.194444</v>
+        <v>7870.1944439999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.186165</v>
+        <v>2.1861649999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG2" s="1">
-        <v>-215.906000</v>
+        <v>-215.90600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>7881.207609</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.189224</v>
+        <v>2.1892239999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL2" s="1">
-        <v>-350.572000</v>
+        <v>-350.572</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>7892.351690</v>
+        <v>7892.3516900000004</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.192320</v>
+        <v>2.19232</v>
       </c>
       <c r="BP2" s="1">
-        <v>1468.300000</v>
+        <v>1468.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-571.756000</v>
+        <v>-571.75599999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>7902.703196</v>
+        <v>7902.7031960000004</v>
       </c>
       <c r="BT2" s="1">
         <v>2.195195</v>
       </c>
       <c r="BU2" s="1">
-        <v>1596.580000</v>
+        <v>1596.58</v>
       </c>
       <c r="BV2" s="1">
-        <v>-822.906000</v>
+        <v>-822.90599999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>7914.136478</v>
+        <v>7914.1364780000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.198371</v>
+        <v>2.1983709999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1744.590000</v>
+        <v>1744.59</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1097.930000</v>
+        <v>-1097.93</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>7925.413518</v>
+        <v>7925.4135180000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.201504</v>
+        <v>2.2015039999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2156.170000</v>
+        <v>2156.17</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1766.900000</v>
+        <v>-1766.9</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>7755.297648</v>
+        <v>7755.2976479999998</v>
       </c>
       <c r="B3" s="1">
-        <v>2.154249</v>
+        <v>2.1542490000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1146.130000</v>
+        <v>1146.1300000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-254.440000</v>
+        <v>-254.44</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>7765.644722</v>
@@ -753,964 +1169,964 @@
         <v>2.157124</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.430000</v>
+        <v>1166.43</v>
       </c>
       <c r="I3" s="1">
-        <v>-212.364000</v>
+        <v>-212.364</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>7776.504100</v>
+        <v>7776.5041000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>2.160140</v>
+        <v>2.1601400000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.140000</v>
+        <v>1193.1400000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.497000</v>
+        <v>-148.49700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>7786.981589</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.163050</v>
+        <v>2.1630500000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.537000</v>
+        <v>-126.53700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>7797.257703</v>
+        <v>7797.2577030000002</v>
       </c>
       <c r="V3" s="1">
         <v>2.165905</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.310000</v>
+        <v>1207.31</v>
       </c>
       <c r="X3" s="1">
-        <v>-105.911000</v>
+        <v>-105.911</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>7807.343850</v>
+        <v>7807.3438500000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.168707</v>
+        <v>2.1687069999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.189400</v>
+        <v>-89.189400000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>7817.580781</v>
+        <v>7817.5807809999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.171550</v>
+        <v>2.1715499999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.730000</v>
+        <v>-84.73</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>7827.703938</v>
+        <v>7827.7039379999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.174362</v>
+        <v>2.1743619999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.965200</v>
+        <v>-87.965199999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>7837.968835</v>
+        <v>7837.9688349999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.177214</v>
+        <v>2.1772140000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.410000</v>
+        <v>1234.4100000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.574000</v>
+        <v>-99.573999999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>7848.540069</v>
+        <v>7848.5400689999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.180150</v>
+        <v>2.1801499999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.170000</v>
+        <v>1244.17</v>
       </c>
       <c r="AW3" s="1">
-        <v>-118.483000</v>
+        <v>-118.483</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>7859.659909</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.183239</v>
+        <v>2.1832389999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.370000</v>
+        <v>1252.3699999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-135.568000</v>
+        <v>-135.56800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>7870.560950</v>
+        <v>7870.56095</v>
       </c>
       <c r="BE3" s="1">
         <v>2.186267</v>
       </c>
       <c r="BF3" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG3" s="1">
-        <v>-215.909000</v>
+        <v>-215.90899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>7881.616776</v>
+        <v>7881.6167759999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.189338</v>
+        <v>2.1893379999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL3" s="1">
-        <v>-350.583000</v>
+        <v>-350.58300000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>7892.861611</v>
+        <v>7892.8616110000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.192462</v>
+        <v>2.1924619999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1468.350000</v>
+        <v>1468.35</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-571.781000</v>
+        <v>-571.78099999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>7903.149099</v>
+        <v>7903.1490990000002</v>
       </c>
       <c r="BT3" s="1">
         <v>2.195319</v>
       </c>
       <c r="BU3" s="1">
-        <v>1596.640000</v>
+        <v>1596.64</v>
       </c>
       <c r="BV3" s="1">
-        <v>-822.981000</v>
+        <v>-822.98099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>7914.599740</v>
+        <v>7914.5997399999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.198500</v>
+        <v>2.1985000000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1744.870000</v>
+        <v>1744.87</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.970000</v>
+        <v>-1097.97</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>7925.958127</v>
+        <v>7925.9581269999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.201655</v>
+        <v>2.2016550000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2157.250000</v>
+        <v>2157.25</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1769.240000</v>
+        <v>-1769.24</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>7755.676603</v>
+        <v>7755.6766029999999</v>
       </c>
       <c r="B4" s="1">
-        <v>2.154355</v>
+        <v>2.1543549999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1146.180000</v>
+        <v>1146.18</v>
       </c>
       <c r="D4" s="1">
-        <v>-254.317000</v>
+        <v>-254.31700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>7766.039046</v>
+        <v>7766.0390459999999</v>
       </c>
       <c r="G4" s="1">
-        <v>2.157233</v>
+        <v>2.1572330000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.200000</v>
+        <v>1166.2</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.430000</v>
+        <v>-213.43</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>7776.850307</v>
+        <v>7776.8503069999997</v>
       </c>
       <c r="L4" s="1">
-        <v>2.160236</v>
+        <v>2.1602359999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.070000</v>
+        <v>1193.07</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.429000</v>
+        <v>-148.429</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>7787.341190</v>
+        <v>7787.3411900000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.163150</v>
+        <v>2.1631499999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1200.540000</v>
+        <v>1200.54</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.536000</v>
+        <v>-126.536</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>7797.600439</v>
+        <v>7797.6004389999998</v>
       </c>
       <c r="V4" s="1">
-        <v>2.166000</v>
+        <v>2.1659999999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1207.400000</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-105.937000</v>
+        <v>-105.937</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>7807.764459</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.168823</v>
+        <v>2.1688230000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.067500</v>
+        <v>-89.067499999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>7818.007340</v>
+        <v>7818.0073400000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.171669</v>
+        <v>2.1716690000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.756300</v>
+        <v>-84.756299999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>7828.049375</v>
+        <v>7828.0493749999996</v>
       </c>
       <c r="AK4" s="1">
         <v>2.174458</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.570000</v>
+        <v>1226.57</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.989200</v>
+        <v>-87.989199999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>7838.313089</v>
+        <v>7838.3130890000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.177309</v>
+        <v>2.1773090000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.390000</v>
+        <v>1234.3900000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.580700</v>
+        <v>-99.580699999999993</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>7848.902649</v>
+        <v>7848.9026489999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.180251</v>
+        <v>2.1802510000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-118.445000</v>
+        <v>-118.44499999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>7860.017850</v>
+        <v>7860.0178500000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>2.183338</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.400000</v>
+        <v>1252.4000000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-135.582000</v>
+        <v>-135.58199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>7870.920583</v>
+        <v>7870.9205830000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.186367</v>
+        <v>2.1863670000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG4" s="1">
-        <v>-215.901000</v>
+        <v>-215.90100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>7882.365737</v>
+        <v>7882.3657370000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>2.189546</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL4" s="1">
-        <v>-350.636000</v>
+        <v>-350.63600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>7893.207816</v>
+        <v>7893.2078160000001</v>
       </c>
       <c r="BO4" s="1">
         <v>2.192558</v>
       </c>
       <c r="BP4" s="1">
-        <v>1468.400000</v>
+        <v>1468.4</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-571.791000</v>
+        <v>-571.79100000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>7903.581611</v>
+        <v>7903.5816109999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.195439</v>
+        <v>2.1954389999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1596.640000</v>
+        <v>1596.64</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.121000</v>
+        <v>-823.12099999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>7915.049152</v>
+        <v>7915.0491519999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.198625</v>
+        <v>2.1986249999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1744.670000</v>
+        <v>1744.67</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.830000</v>
+        <v>-1097.83</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>7926.499264</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.201805</v>
+        <v>2.2018049999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>2157.500000</v>
+        <v>2157.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1766.890000</v>
+        <v>-1766.89</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>7756.017374</v>
       </c>
       <c r="B5" s="1">
-        <v>2.154449</v>
+        <v>2.1544490000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1146.270000</v>
+        <v>1146.27</v>
       </c>
       <c r="D5" s="1">
-        <v>-254.689000</v>
+        <v>-254.68899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>7766.376817</v>
+        <v>7766.3768170000003</v>
       </c>
       <c r="G5" s="1">
         <v>2.157327</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.820000</v>
+        <v>1166.82</v>
       </c>
       <c r="I5" s="1">
-        <v>-212.905000</v>
+        <v>-212.905</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>7777.184114</v>
+        <v>7777.1841139999997</v>
       </c>
       <c r="L5" s="1">
-        <v>2.160329</v>
+        <v>2.1603289999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.010000</v>
+        <v>1193.01</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.170000</v>
+        <v>-148.16999999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>7787.692852</v>
+        <v>7787.6928520000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.163248</v>
+        <v>2.1632479999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.530000</v>
+        <v>1200.53</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.554000</v>
+        <v>-126.554</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>7798.017078</v>
+        <v>7798.0170779999999</v>
       </c>
       <c r="V5" s="1">
-        <v>2.166116</v>
+        <v>2.1661160000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1207.320000</v>
+        <v>1207.32</v>
       </c>
       <c r="X5" s="1">
-        <v>-105.968000</v>
+        <v>-105.968</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>7808.046185</v>
+        <v>7808.0461850000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.168902</v>
+        <v>2.1689020000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.375100</v>
+        <v>-89.375100000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>7818.272205</v>
+        <v>7818.2722050000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.171742</v>
+        <v>2.1717420000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.749300</v>
+        <v>-84.749300000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>7828.399055</v>
+        <v>7828.3990549999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.174555</v>
+        <v>2.1745549999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.944800</v>
+        <v>-87.944800000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>7838.675634</v>
+        <v>7838.6756340000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.177410</v>
+        <v>2.1774100000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.380000</v>
+        <v>1234.3800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-99.580800</v>
+        <v>-99.580799999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>7849.264226</v>
+        <v>7849.2642260000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.180351</v>
+        <v>2.1803509999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-118.464000</v>
+        <v>-118.464</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>7860.737187</v>
+        <v>7860.7371869999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>2.183538</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.360000</v>
+        <v>1252.3599999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-135.574000</v>
+        <v>-135.57400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>7871.649173</v>
+        <v>7871.6491729999998</v>
       </c>
       <c r="BE5" s="1">
         <v>2.186569</v>
       </c>
       <c r="BF5" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG5" s="1">
-        <v>-215.941000</v>
+        <v>-215.941</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>7882.769478</v>
+        <v>7882.7694780000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.189658</v>
+        <v>2.1896580000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.170000</v>
+        <v>1358.17</v>
       </c>
       <c r="BL5" s="1">
-        <v>-350.586000</v>
+        <v>-350.58600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>7893.607593</v>
+        <v>7893.6075929999997</v>
       </c>
       <c r="BO5" s="1">
         <v>2.192669</v>
       </c>
       <c r="BP5" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-571.783000</v>
+        <v>-571.78300000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>7903.989845</v>
+        <v>7903.9898450000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.195553</v>
+        <v>2.1955529999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1596.790000</v>
+        <v>1596.79</v>
       </c>
       <c r="BV5" s="1">
-        <v>-823.117000</v>
+        <v>-823.11699999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>7915.794108</v>
+        <v>7915.7941080000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.198832</v>
+        <v>2.1988319999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1744.790000</v>
+        <v>1744.79</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1097.950000</v>
+        <v>-1097.95</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>7927.038450</v>
+        <v>7927.03845</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.201955</v>
+        <v>2.2019549999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2155.820000</v>
+        <v>2155.8200000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1768.020000</v>
+        <v>-1768.02</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>7756.357103</v>
+        <v>7756.3571030000003</v>
       </c>
       <c r="B6" s="1">
         <v>2.154544</v>
       </c>
       <c r="C6" s="1">
-        <v>1146.170000</v>
+        <v>1146.17</v>
       </c>
       <c r="D6" s="1">
-        <v>-254.423000</v>
+        <v>-254.423</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>7766.721506</v>
+        <v>7766.7215059999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2.157423</v>
+        <v>2.1574230000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.780000</v>
+        <v>1165.78</v>
       </c>
       <c r="I6" s="1">
-        <v>-213.354000</v>
+        <v>-213.35400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>7777.605713</v>
+        <v>7777.6057129999999</v>
       </c>
       <c r="L6" s="1">
-        <v>2.160446</v>
+        <v>2.1604459999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1192.930000</v>
+        <v>1192.93</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.065000</v>
+        <v>-148.065</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>7788.100564</v>
+        <v>7788.1005640000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.163361</v>
+        <v>2.1633610000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1200.480000</v>
+        <v>1200.48</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.545000</v>
+        <v>-126.545</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>7798.309223</v>
+        <v>7798.3092230000002</v>
       </c>
       <c r="V6" s="1">
-        <v>2.166197</v>
+        <v>2.1661969999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.330000</v>
+        <v>1207.33</v>
       </c>
       <c r="X6" s="1">
-        <v>-105.951000</v>
+        <v>-105.95099999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>7808.392889</v>
+        <v>7808.3928889999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.168998</v>
+        <v>2.1689980000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1214.800000</v>
+        <v>1214.8</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.241800</v>
+        <v>-89.241799999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>7818.611468</v>
+        <v>7818.6114680000001</v>
       </c>
       <c r="AF6" s="1">
         <v>2.171837</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.520000</v>
+        <v>1219.52</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.727900</v>
+        <v>-84.727900000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7828.743279</v>
+        <v>7828.7432790000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.174651</v>
+        <v>2.1746509999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.931400</v>
+        <v>-87.931399999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>7839.031264</v>
+        <v>7839.0312640000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.177509</v>
+        <v>2.1775090000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.400000</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-99.561300</v>
+        <v>-99.561300000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>7849.995863</v>
+        <v>7849.9958630000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.180554</v>
+        <v>2.1805539999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.170000</v>
+        <v>1244.17</v>
       </c>
       <c r="AW6" s="1">
-        <v>-118.474000</v>
+        <v>-118.474</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>7861.096291</v>
+        <v>7861.0962909999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.183638</v>
+        <v>2.1836380000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.370000</v>
+        <v>1252.3699999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-135.592000</v>
+        <v>-135.59200000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>7872.027620</v>
+        <v>7872.0276199999998</v>
       </c>
       <c r="BE6" s="1">
         <v>2.186674</v>
       </c>
       <c r="BF6" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG6" s="1">
-        <v>-215.944000</v>
+        <v>-215.94399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>7883.143958</v>
+        <v>7883.1439579999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>2.189762</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL6" s="1">
-        <v>-350.650000</v>
+        <v>-350.65</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>7894.332247</v>
+        <v>7894.3322470000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.192870</v>
+        <v>2.1928700000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1468.390000</v>
+        <v>1468.39</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-571.805000</v>
+        <v>-571.80499999999995</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>7904.703066</v>
@@ -1719,240 +2135,240 @@
         <v>2.195751</v>
       </c>
       <c r="BU6" s="1">
-        <v>1596.750000</v>
+        <v>1596.75</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.203000</v>
+        <v>-823.20299999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>7915.910172</v>
+        <v>7915.9101719999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.198864</v>
+        <v>2.1988639999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1744.800000</v>
+        <v>1744.8</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.910000</v>
+        <v>-1097.9100000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>7927.578363</v>
+        <v>7927.5783629999996</v>
       </c>
       <c r="CD6" s="1">
         <v>2.202105</v>
       </c>
       <c r="CE6" s="1">
-        <v>2158.330000</v>
+        <v>2158.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1768.470000</v>
+        <v>-1768.47</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>7756.788620</v>
+        <v>7756.7886200000003</v>
       </c>
       <c r="B7" s="1">
-        <v>2.154664</v>
+        <v>2.1546639999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1146.240000</v>
+        <v>1146.24</v>
       </c>
       <c r="D7" s="1">
-        <v>-254.720000</v>
+        <v>-254.72</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>7767.133680</v>
+        <v>7767.1336799999999</v>
       </c>
       <c r="G7" s="1">
         <v>2.157537</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.170000</v>
+        <v>1166.17</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.007000</v>
+        <v>-213.00700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>7777.888468</v>
+        <v>7777.8884680000001</v>
       </c>
       <c r="L7" s="1">
-        <v>2.160525</v>
+        <v>2.1605249999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.110000</v>
+        <v>1193.1099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.195000</v>
+        <v>-148.19499999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>7788.390228</v>
+        <v>7788.3902280000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.163442</v>
+        <v>2.1634419999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.450000</v>
+        <v>1200.45</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.518000</v>
+        <v>-126.518</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>7798.647493</v>
+        <v>7798.6474930000004</v>
       </c>
       <c r="V7" s="1">
-        <v>2.166291</v>
+        <v>2.1662910000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1207.300000</v>
+        <v>1207.3</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.006000</v>
+        <v>-106.006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>7808.742600</v>
+        <v>7808.7425999999996</v>
       </c>
       <c r="AA7" s="1">
         <v>2.169095</v>
       </c>
       <c r="AB7" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.270800</v>
+        <v>-89.270799999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>7818.955691</v>
+        <v>7818.9556910000001</v>
       </c>
       <c r="AF7" s="1">
         <v>2.171932</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.736200</v>
+        <v>-84.736199999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>7829.443136</v>
+        <v>7829.4431359999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.174845</v>
+        <v>2.1748449999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.963300</v>
+        <v>-87.963300000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>7839.753085</v>
+        <v>7839.7530850000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.177709</v>
+        <v>2.1777090000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.400000</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.568400</v>
+        <v>-99.568399999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>7850.387202</v>
+        <v>7850.3872019999999</v>
       </c>
       <c r="AU7" s="1">
         <v>2.180663</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.100000</v>
+        <v>1244.0999999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-118.479000</v>
+        <v>-118.479</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>7861.454899</v>
+        <v>7861.4548990000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.183737</v>
+        <v>2.1837369999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.370000</v>
+        <v>1252.3699999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-135.569000</v>
+        <v>-135.56899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>7872.389701</v>
+        <v>7872.3897010000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.186775</v>
+        <v>2.1867749999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1291.180000</v>
+        <v>1291.18</v>
       </c>
       <c r="BG7" s="1">
-        <v>-215.915000</v>
+        <v>-215.91499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>7883.828437</v>
+        <v>7883.8284370000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.189952</v>
+        <v>2.1899519999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.210000</v>
+        <v>1358.21</v>
       </c>
       <c r="BL7" s="1">
-        <v>-350.642000</v>
+        <v>-350.642</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>7894.443816</v>
@@ -1961,1603 +2377,1603 @@
         <v>2.192901</v>
       </c>
       <c r="BP7" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-571.808000</v>
+        <v>-571.80799999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>7904.825578</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.195785</v>
+        <v>2.1957849999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1596.730000</v>
+        <v>1596.73</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.255000</v>
+        <v>-823.255</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>7916.336234</v>
+        <v>7916.3362340000003</v>
       </c>
       <c r="BY7" s="1">
         <v>2.198982</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1744.600000</v>
+        <v>1744.6</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1097.970000</v>
+        <v>-1097.97</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>7928.117706</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.202255</v>
+        <v>2.2022550000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2155.900000</v>
+        <v>2155.9</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1766.740000</v>
+        <v>-1766.74</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>7757.050540</v>
+        <v>7757.0505400000002</v>
       </c>
       <c r="B8" s="1">
-        <v>2.154736</v>
+        <v>2.1547360000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1146.070000</v>
+        <v>1146.07</v>
       </c>
       <c r="D8" s="1">
-        <v>-254.411000</v>
+        <v>-254.411</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>7767.433759</v>
+        <v>7767.4337589999996</v>
       </c>
       <c r="G8" s="1">
-        <v>2.157620</v>
+        <v>2.1576200000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.580000</v>
+        <v>1166.58</v>
       </c>
       <c r="I8" s="1">
-        <v>-213.720000</v>
+        <v>-213.72</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>7778.234144</v>
       </c>
       <c r="L8" s="1">
-        <v>2.160621</v>
+        <v>2.1606209999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1192.890000</v>
+        <v>1192.8900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.203000</v>
+        <v>-148.203</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>7788.753795</v>
+        <v>7788.7537949999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.163543</v>
+        <v>2.1635430000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.430000</v>
+        <v>1200.43</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.551000</v>
+        <v>-126.551</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>7798.992720</v>
+        <v>7798.9927200000002</v>
       </c>
       <c r="V8" s="1">
-        <v>2.166387</v>
+        <v>2.1663869999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-105.920000</v>
+        <v>-105.92</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>7809.440967</v>
+        <v>7809.4409669999995</v>
       </c>
       <c r="AA8" s="1">
         <v>2.169289</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.870000</v>
+        <v>1214.8699999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.146900</v>
+        <v>-89.146900000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>7819.643175</v>
+        <v>7819.6431750000002</v>
       </c>
       <c r="AF8" s="1">
         <v>2.172123</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.530000</v>
+        <v>1219.53</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.786400</v>
+        <v>-84.7864</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>7829.789346</v>
+        <v>7829.7893459999996</v>
       </c>
       <c r="AK8" s="1">
         <v>2.174941</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.946100</v>
+        <v>-87.946100000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>7840.304497</v>
+        <v>7840.3044970000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.177862</v>
+        <v>2.1778620000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.380000</v>
+        <v>1234.3800000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-99.574300</v>
+        <v>-99.574299999999994</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>7850.752726</v>
+        <v>7850.7527259999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.180765</v>
+        <v>2.1807650000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-118.461000</v>
+        <v>-118.461</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>7862.115601</v>
+        <v>7862.1156010000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.183921</v>
+        <v>2.1839209999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.360000</v>
+        <v>1252.3599999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-135.570000</v>
+        <v>-135.57</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>7873.063267</v>
+        <v>7873.0632670000005</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.186962</v>
+        <v>2.1869619999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1291.180000</v>
+        <v>1291.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-215.920000</v>
+        <v>-215.92</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>7883.937061</v>
+        <v>7883.9370609999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.189983</v>
+        <v>2.1899829999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL8" s="1">
-        <v>-350.575000</v>
+        <v>-350.57499999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>7894.849084</v>
+        <v>7894.8490840000004</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.193014</v>
+        <v>2.1930139999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-571.851000</v>
+        <v>-571.851</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>7905.263701</v>
+        <v>7905.2637009999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.195907</v>
+        <v>2.1959070000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1596.630000</v>
+        <v>1596.63</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.314000</v>
+        <v>-823.31399999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>7916.754858</v>
+        <v>7916.7548580000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.199099</v>
+        <v>2.1990989999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1744.660000</v>
+        <v>1744.66</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.750000</v>
+        <v>-1097.75</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>7928.659833</v>
+        <v>7928.6598329999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.202406</v>
+        <v>2.2024059999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2157.090000</v>
+        <v>2157.09</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1768.870000</v>
+        <v>-1768.87</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>7757.394063</v>
+        <v>7757.3940629999997</v>
       </c>
       <c r="B9" s="1">
-        <v>2.154832</v>
+        <v>2.1548319999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1145.790000</v>
+        <v>1145.79</v>
       </c>
       <c r="D9" s="1">
-        <v>-254.531000</v>
+        <v>-254.53100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>7767.777982</v>
+        <v>7767.7779819999996</v>
       </c>
       <c r="G9" s="1">
-        <v>2.157716</v>
+        <v>2.1577160000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.830000</v>
+        <v>1166.83</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.362000</v>
+        <v>-213.36199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>7778.578901</v>
+        <v>7778.5789009999999</v>
       </c>
       <c r="L9" s="1">
-        <v>2.160716</v>
+        <v>2.1607159999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.410000</v>
+        <v>1193.4100000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.469000</v>
+        <v>-148.46899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>7789.387714</v>
+        <v>7789.3877140000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.163719</v>
+        <v>2.1637189999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.447000</v>
+        <v>-126.447</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>7799.680196</v>
+        <v>7799.6801960000003</v>
       </c>
       <c r="V9" s="1">
-        <v>2.166578</v>
+        <v>2.1665779999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1207.200000</v>
+        <v>1207.2</v>
       </c>
       <c r="X9" s="1">
-        <v>-105.903000</v>
+        <v>-105.90300000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>7809.788631</v>
+        <v>7809.7886310000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.169386</v>
+        <v>2.1693859999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.182500</v>
+        <v>-89.182500000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>7819.988857</v>
+        <v>7819.9888570000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.172219</v>
+        <v>2.1722190000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.738800</v>
+        <v>-84.738799999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>7830.144940</v>
+        <v>7830.1449400000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.175040</v>
+        <v>2.1750400000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.570000</v>
+        <v>1226.57</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.951700</v>
+        <v>-87.951700000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>7840.495950</v>
+        <v>7840.4959500000004</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.177916</v>
+        <v>2.1779160000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.370000</v>
+        <v>1234.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.583400</v>
+        <v>-99.583399999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>7851.418602</v>
+        <v>7851.4186019999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.180950</v>
+        <v>2.1809500000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-118.473000</v>
+        <v>-118.473</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>7862.564971</v>
+        <v>7862.5649709999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.184046</v>
+        <v>2.1840459999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.360000</v>
+        <v>1252.3599999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-135.568000</v>
+        <v>-135.56800000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>7873.506691</v>
+        <v>7873.5066909999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.187085</v>
+        <v>2.1870850000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG9" s="1">
-        <v>-215.911000</v>
+        <v>-215.911</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>7884.295701</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.190082</v>
+        <v>2.1900819999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.210000</v>
+        <v>1358.21</v>
       </c>
       <c r="BL9" s="1">
-        <v>-350.637000</v>
+        <v>-350.637</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>7895.243398</v>
+        <v>7895.2433979999996</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.193123</v>
+        <v>2.1931229999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1468.380000</v>
+        <v>1468.38</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-571.808000</v>
+        <v>-571.80799999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>7905.673737</v>
+        <v>7905.6737370000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.196020</v>
+        <v>2.1960199999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1596.570000</v>
+        <v>1596.57</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.443000</v>
+        <v>-823.44299999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>7917.200764</v>
+        <v>7917.2007640000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.199222</v>
+        <v>2.1992219999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1744.710000</v>
+        <v>1744.71</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.770000</v>
+        <v>-1097.77</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>7929.199481</v>
+        <v>7929.1994809999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.202555</v>
+        <v>2.2025549999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>2158.160000</v>
+        <v>2158.16</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1766.970000</v>
+        <v>-1766.97</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>7757.735980</v>
+        <v>7757.7359800000004</v>
       </c>
       <c r="B10" s="1">
-        <v>2.154927</v>
+        <v>2.1549269999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1145.930000</v>
+        <v>1145.93</v>
       </c>
       <c r="D10" s="1">
-        <v>-254.569000</v>
+        <v>-254.56899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>7768.121742</v>
+        <v>7768.1217420000003</v>
       </c>
       <c r="G10" s="1">
-        <v>2.157812</v>
+        <v>2.1578119999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.980000</v>
+        <v>1166.98</v>
       </c>
       <c r="I10" s="1">
-        <v>-213.988000</v>
+        <v>-213.988</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>7779.267808</v>
+        <v>7779.2678079999996</v>
       </c>
       <c r="L10" s="1">
-        <v>2.160908</v>
+        <v>2.1609080000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.000000</v>
+        <v>1193</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.141000</v>
+        <v>-148.14099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>7789.799393</v>
+        <v>7789.7993930000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.163833</v>
+        <v>2.1638329999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1200.520000</v>
+        <v>1200.52</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.484000</v>
+        <v>-126.48399999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>7800.022900</v>
+        <v>7800.0228999999999</v>
       </c>
       <c r="V10" s="1">
-        <v>2.166673</v>
+        <v>2.1666729999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.300000</v>
+        <v>1207.3</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.895000</v>
+        <v>-105.895</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>7810.138317</v>
+        <v>7810.1383169999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.169483</v>
+        <v>2.1694830000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.000000</v>
+        <v>1215</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.176400</v>
+        <v>-89.176400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>7820.335096</v>
+        <v>7820.3350959999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.172315</v>
+        <v>2.1723150000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.735000</v>
+        <v>-84.734999999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>7830.797675</v>
+        <v>7830.7976749999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.175222</v>
+        <v>2.1752220000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.570000</v>
+        <v>1226.57</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.970900</v>
+        <v>-87.9709</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>7840.914078</v>
+        <v>7840.9140779999998</v>
       </c>
       <c r="AP10" s="1">
         <v>2.178032</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.360000</v>
+        <v>1234.3599999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-99.581900</v>
+        <v>-99.581900000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>7851.879135</v>
+        <v>7851.8791350000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.181078</v>
+        <v>2.1810779999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.120000</v>
+        <v>1244.1199999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-118.453000</v>
+        <v>-118.453</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>7862.921606</v>
+        <v>7862.9216059999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>2.184145</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-135.569000</v>
+        <v>-135.56899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>7873.868275</v>
+        <v>7873.8682749999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.187186</v>
+        <v>2.1871860000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG10" s="1">
-        <v>-215.943000</v>
+        <v>-215.94300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>7884.672628</v>
+        <v>7884.6726280000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.190187</v>
+        <v>2.1901869999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL10" s="1">
-        <v>-350.602000</v>
+        <v>-350.60199999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>7895.664469</v>
+        <v>7895.6644690000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.193240</v>
+        <v>2.1932399999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-571.786000</v>
+        <v>-571.78599999999994</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>7906.091400</v>
+        <v>7906.0914000000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.196136</v>
+        <v>2.1961360000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1596.720000</v>
+        <v>1596.72</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.402000</v>
+        <v>-823.40200000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>7917.621891</v>
+        <v>7917.6218909999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.199339</v>
+        <v>2.1993390000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1744.700000</v>
+        <v>1744.7</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1097.730000</v>
+        <v>-1097.73</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>7929.737640</v>
+        <v>7929.7376400000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.202705</v>
+        <v>2.2027049999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2156.210000</v>
+        <v>2156.21</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1768.070000</v>
+        <v>-1768.07</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>7758.415040</v>
+        <v>7758.4150399999999</v>
       </c>
       <c r="B11" s="1">
-        <v>2.155115</v>
+        <v>2.1551149999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1146.190000</v>
+        <v>1146.19</v>
       </c>
       <c r="D11" s="1">
-        <v>-254.675000</v>
+        <v>-254.67500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>7768.811149</v>
+        <v>7768.8111490000001</v>
       </c>
       <c r="G11" s="1">
-        <v>2.158003</v>
+        <v>2.1580029999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.870000</v>
+        <v>1166.8699999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-213.415000</v>
+        <v>-213.41499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>7779.615007</v>
+        <v>7779.6150070000003</v>
       </c>
       <c r="L11" s="1">
-        <v>2.161004</v>
+        <v>2.1610040000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.320000</v>
+        <v>1193.32</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.283000</v>
+        <v>-148.28299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>7790.147552</v>
+        <v>7790.1475520000004</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.163930</v>
+        <v>2.1639300000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.565000</v>
+        <v>-126.565</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>7800.366627</v>
+        <v>7800.3666270000003</v>
       </c>
       <c r="V11" s="1">
-        <v>2.166769</v>
+        <v>2.1667689999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.310000</v>
+        <v>1207.31</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.956000</v>
+        <v>-105.956</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>7810.794519</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.169665</v>
+        <v>2.1696650000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1214.820000</v>
+        <v>1214.82</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.254300</v>
+        <v>-89.254300000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>7820.974905</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.172493</v>
+        <v>2.1724929999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.741300</v>
+        <v>-84.741299999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>7831.186043</v>
+        <v>7831.1860429999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.175329</v>
+        <v>2.1753290000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.959500</v>
+        <v>-87.959500000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>7841.192831</v>
+        <v>7841.1928310000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.178109</v>
+        <v>2.1781090000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.400000</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-99.571800</v>
+        <v>-99.571799999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>7852.242239</v>
+        <v>7852.2422390000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.181178</v>
+        <v>2.1811780000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-118.483000</v>
+        <v>-118.483</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>7863.280672</v>
+        <v>7863.2806719999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.184245</v>
+        <v>2.1842450000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-135.588000</v>
+        <v>-135.58799999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>7874.222915</v>
+        <v>7874.2229150000003</v>
       </c>
       <c r="BE11" s="1">
         <v>2.187284</v>
       </c>
       <c r="BF11" s="1">
-        <v>1291.180000</v>
+        <v>1291.18</v>
       </c>
       <c r="BG11" s="1">
-        <v>-215.933000</v>
+        <v>-215.93299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>7885.099684</v>
+        <v>7885.0996839999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.190305</v>
+        <v>2.1903049999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.190000</v>
+        <v>1358.19</v>
       </c>
       <c r="BL11" s="1">
-        <v>-350.638000</v>
+        <v>-350.63799999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>7896.064487</v>
+        <v>7896.0644869999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.193351</v>
+        <v>2.1933509999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-571.835000</v>
+        <v>-571.83500000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>7906.531319</v>
+        <v>7906.5313189999997</v>
       </c>
       <c r="BT11" s="1">
         <v>2.196259</v>
       </c>
       <c r="BU11" s="1">
-        <v>1596.600000</v>
+        <v>1596.6</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.515000</v>
+        <v>-823.51499999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>7918.045449</v>
+        <v>7918.0454490000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.199457</v>
+        <v>2.1994570000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1744.650000</v>
+        <v>1744.65</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1097.810000</v>
+        <v>-1097.81</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>7930.277785</v>
+        <v>7930.2777850000002</v>
       </c>
       <c r="CD11" s="1">
         <v>2.202855</v>
       </c>
       <c r="CE11" s="1">
-        <v>2158.730000</v>
+        <v>2158.73</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1768.540000</v>
+        <v>-1768.54</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>7758.757775</v>
       </c>
       <c r="B12" s="1">
-        <v>2.155210</v>
+        <v>2.1552099999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1146.270000</v>
+        <v>1146.27</v>
       </c>
       <c r="D12" s="1">
-        <v>-254.473000</v>
+        <v>-254.47300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>7769.156374</v>
+        <v>7769.1563740000001</v>
       </c>
       <c r="G12" s="1">
         <v>2.158099</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.230000</v>
+        <v>1166.23</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.726000</v>
+        <v>-212.726</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>7779.962206</v>
+        <v>7779.9622060000002</v>
       </c>
       <c r="L12" s="1">
-        <v>2.161101</v>
+        <v>2.1611009999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1192.950000</v>
+        <v>1192.95</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.445000</v>
+        <v>-148.44499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>7790.803792</v>
+        <v>7790.8037919999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.164112</v>
+        <v>2.1641119999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1200.370000</v>
+        <v>1200.3699999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.526000</v>
+        <v>-126.526</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>7801.031764</v>
+        <v>7801.0317640000003</v>
       </c>
       <c r="V12" s="1">
-        <v>2.166953</v>
+        <v>2.1669529999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.260000</v>
+        <v>1207.26</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.029000</v>
+        <v>-106.029</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>7811.181398</v>
+        <v>7811.1813979999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.169773</v>
+        <v>2.1697730000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1214.980000</v>
+        <v>1214.98</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.338000</v>
+        <v>-89.337999999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>7821.365751</v>
+        <v>7821.3657510000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.172602</v>
+        <v>2.1726019999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.808900</v>
+        <v>-84.808899999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>7831.538202</v>
+        <v>7831.5382019999997</v>
       </c>
       <c r="AK12" s="1">
         <v>2.175427</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.955100</v>
+        <v>-87.955100000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>7841.552925</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.178209</v>
+        <v>2.1782089999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.370000</v>
+        <v>1234.3699999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-99.598400</v>
+        <v>-99.598399999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>7852.608782</v>
+        <v>7852.6087820000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.181280</v>
+        <v>2.1812800000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-118.469000</v>
+        <v>-118.46899999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>7863.691857</v>
+        <v>7863.6918569999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.184359</v>
+        <v>2.1843590000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.350000</v>
+        <v>1252.3499999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-135.582000</v>
+        <v>-135.58199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>7874.634097</v>
+        <v>7874.6340970000001</v>
       </c>
       <c r="BE12" s="1">
         <v>2.187398</v>
       </c>
       <c r="BF12" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG12" s="1">
-        <v>-215.933000</v>
+        <v>-215.93299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>7885.420595</v>
+        <v>7885.4205949999996</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.190395</v>
+        <v>2.1903950000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL12" s="1">
-        <v>-350.620000</v>
+        <v>-350.62</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>7896.484890</v>
+        <v>7896.4848899999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.193468</v>
+        <v>2.1934680000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1468.310000</v>
+        <v>1468.31</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-571.865000</v>
+        <v>-571.86500000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>7906.954935</v>
+        <v>7906.9549349999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.196376</v>
+        <v>2.1963759999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1596.540000</v>
+        <v>1596.54</v>
       </c>
       <c r="BV12" s="1">
-        <v>-823.637000</v>
+        <v>-823.63699999999994</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>7918.491847</v>
+        <v>7918.4918470000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.199581</v>
+        <v>2.1995809999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1744.920000</v>
+        <v>1744.92</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.990000</v>
+        <v>-1097.99</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>7930.819415</v>
+        <v>7930.8194149999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.203005</v>
+        <v>2.2030050000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2156.270000</v>
+        <v>2156.27</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1766.810000</v>
+        <v>-1766.81</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>7759.101002</v>
+        <v>7759.1010020000003</v>
       </c>
       <c r="B13" s="1">
-        <v>2.155306</v>
+        <v>2.1553059999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1146.080000</v>
+        <v>1146.08</v>
       </c>
       <c r="D13" s="1">
-        <v>-254.480000</v>
+        <v>-254.48</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>7769.500588</v>
+        <v>7769.5005879999999</v>
       </c>
       <c r="G13" s="1">
-        <v>2.158195</v>
+        <v>2.1581950000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.620000</v>
+        <v>1166.6199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-212.994000</v>
+        <v>-212.994</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>7780.601087</v>
       </c>
       <c r="L13" s="1">
-        <v>2.161278</v>
+        <v>2.1612779999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.280000</v>
+        <v>1193.28</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.238000</v>
+        <v>-148.238</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>7791.194144</v>
+        <v>7791.1941440000001</v>
       </c>
       <c r="Q13" s="1">
         <v>2.164221</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.370000</v>
+        <v>1200.3699999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.477000</v>
+        <v>-126.477</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>7801.386402</v>
+        <v>7801.3864020000001</v>
       </c>
       <c r="V13" s="1">
         <v>2.167052</v>
       </c>
       <c r="W13" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.948000</v>
+        <v>-105.94799999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>7811.534549</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.169871</v>
+        <v>2.1698710000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1214.800000</v>
+        <v>1214.8</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.251800</v>
+        <v>-89.251800000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>7821.710968</v>
+        <v>7821.7109680000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.172697</v>
+        <v>2.1726969999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.600000</v>
+        <v>1219.5999999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.749600</v>
+        <v>-84.749600000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>7831.882922</v>
+        <v>7831.8829219999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.175523</v>
+        <v>2.1755230000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.972800</v>
+        <v>-87.972800000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>7841.969070</v>
+        <v>7841.9690700000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.178325</v>
+        <v>2.1783250000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.390000</v>
+        <v>1234.3900000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-99.587000</v>
+        <v>-99.587000000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>7853.024925</v>
+        <v>7853.0249249999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.181396</v>
+        <v>2.1813959999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-118.449000</v>
+        <v>-118.449</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>7863.999881</v>
+        <v>7863.9998809999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.184444</v>
+        <v>2.1844440000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.370000</v>
+        <v>1252.3699999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-135.589000</v>
+        <v>-135.589</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>7874.951537</v>
+        <v>7874.9515369999999</v>
       </c>
       <c r="BE13" s="1">
         <v>2.187487</v>
       </c>
       <c r="BF13" s="1">
-        <v>1291.190000</v>
+        <v>1291.19</v>
       </c>
       <c r="BG13" s="1">
-        <v>-215.946000</v>
+        <v>-215.946</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>7885.818387</v>
+        <v>7885.8183870000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.190505</v>
+        <v>2.1905049999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.190000</v>
+        <v>1358.19</v>
       </c>
       <c r="BL13" s="1">
-        <v>-350.589000</v>
+        <v>-350.589</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>7896.881156</v>
+        <v>7896.8811560000004</v>
       </c>
       <c r="BO13" s="1">
         <v>2.193578</v>
       </c>
       <c r="BP13" s="1">
-        <v>1468.360000</v>
+        <v>1468.36</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-571.825000</v>
+        <v>-571.82500000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>7907.365590</v>
+        <v>7907.3655900000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.196490</v>
+        <v>2.1964899999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1596.470000</v>
+        <v>1596.47</v>
       </c>
       <c r="BV13" s="1">
-        <v>-823.597000</v>
+        <v>-823.59699999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>7918.925351</v>
+        <v>7918.9253509999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.199701</v>
+        <v>2.1997010000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1744.720000</v>
+        <v>1744.72</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1097.980000</v>
+        <v>-1097.98</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>7931.358070</v>
+        <v>7931.3580700000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.203155</v>
+        <v>2.2031550000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>2156.760000</v>
+        <v>2156.7600000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1769.330000</v>
+        <v>-1769.33</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>7759.741336</v>
       </c>
@@ -3565,692 +3981,692 @@
         <v>2.155484</v>
       </c>
       <c r="C14" s="1">
-        <v>1145.760000</v>
+        <v>1145.76</v>
       </c>
       <c r="D14" s="1">
-        <v>-254.848000</v>
+        <v>-254.84800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>7770.164732</v>
+        <v>7770.1647320000002</v>
       </c>
       <c r="G14" s="1">
         <v>2.158379</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.450000</v>
+        <v>1166.45</v>
       </c>
       <c r="I14" s="1">
-        <v>-213.555000</v>
+        <v>-213.55500000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>7780.996892</v>
+        <v>7780.9968920000001</v>
       </c>
       <c r="L14" s="1">
-        <v>2.161388</v>
+        <v>2.1613880000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1192.790000</v>
+        <v>1192.79</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.481000</v>
+        <v>-148.48099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>7791.543327</v>
+        <v>7791.5433270000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.164318</v>
+        <v>2.1643180000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.400000</v>
+        <v>1200.4000000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.376000</v>
+        <v>-126.376</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>7801.740546</v>
       </c>
       <c r="V14" s="1">
-        <v>2.167150</v>
+        <v>2.1671499999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.023000</v>
+        <v>-106.023</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>7811.882263</v>
+        <v>7811.8822630000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.169967</v>
+        <v>2.1699670000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.261300</v>
+        <v>-89.261300000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>7822.054528</v>
+        <v>7822.0545279999997</v>
       </c>
       <c r="AF14" s="1">
         <v>2.172793</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.760000</v>
+        <v>-84.76</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>7832.299561</v>
+        <v>7832.2995609999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.175639</v>
+        <v>2.1756389999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.994100</v>
+        <v>-87.994100000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>7842.276124</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.178410</v>
+        <v>2.17841</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.400000</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.564800</v>
+        <v>-99.564800000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>7853.335163</v>
+        <v>7853.3351629999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.181482</v>
+        <v>2.1814819999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-118.483000</v>
+        <v>-118.483</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>7864.356494</v>
+        <v>7864.3564939999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.184543</v>
+        <v>2.1845430000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.380000</v>
+        <v>1252.3800000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-135.581000</v>
+        <v>-135.58099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>7875.313648</v>
+        <v>7875.3136480000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.187587</v>
+        <v>2.1875870000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG14" s="1">
-        <v>-215.955000</v>
+        <v>-215.95500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>7886.193891</v>
+        <v>7886.1938909999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.190609</v>
+        <v>2.1906089999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.240000</v>
+        <v>1358.24</v>
       </c>
       <c r="BL14" s="1">
-        <v>-350.586000</v>
+        <v>-350.58600000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>7897.299779</v>
+        <v>7897.2997789999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.193694</v>
+        <v>2.1936939999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1468.350000</v>
+        <v>1468.35</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-571.820000</v>
+        <v>-571.82000000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>7907.797606</v>
+        <v>7907.7976060000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.196610</v>
+        <v>2.1966100000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1596.460000</v>
+        <v>1596.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-823.587000</v>
+        <v>-823.58699999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>7919.344503</v>
+        <v>7919.3445030000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.199818</v>
+        <v>2.1998180000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1744.780000</v>
+        <v>1744.78</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1098.010000</v>
+        <v>-1098.01</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>7931.896725</v>
+        <v>7931.8967249999996</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.203305</v>
+        <v>2.2033049999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>2157.920000</v>
+        <v>2157.92</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1767.020000</v>
+        <v>-1767.02</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>7760.126564</v>
+        <v>7760.1265640000001</v>
       </c>
       <c r="B15" s="1">
-        <v>2.155591</v>
+        <v>2.1555909999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1146.090000</v>
+        <v>1146.0899999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-254.493000</v>
+        <v>-254.49299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>7770.537724</v>
+        <v>7770.5377239999998</v>
       </c>
       <c r="G15" s="1">
-        <v>2.158483</v>
+        <v>2.1584829999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1166.440000</v>
+        <v>1166.44</v>
       </c>
       <c r="I15" s="1">
-        <v>-212.895000</v>
+        <v>-212.89500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>7781.342078</v>
+        <v>7781.3420779999997</v>
       </c>
       <c r="L15" s="1">
-        <v>2.161484</v>
+        <v>2.1614840000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1192.870000</v>
+        <v>1192.8699999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.380000</v>
+        <v>-148.38</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>7791.882094</v>
+        <v>7791.8820939999996</v>
       </c>
       <c r="Q15" s="1">
         <v>2.164412</v>
       </c>
       <c r="R15" s="1">
-        <v>1200.400000</v>
+        <v>1200.4000000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-126.492000</v>
+        <v>-126.492</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>7802.085301</v>
+        <v>7802.0853010000001</v>
       </c>
       <c r="V15" s="1">
         <v>2.167246</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-105.930000</v>
+        <v>-105.93</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>7812.298388</v>
+        <v>7812.2983880000002</v>
       </c>
       <c r="AA15" s="1">
         <v>2.170083</v>
       </c>
       <c r="AB15" s="1">
-        <v>1214.970000</v>
+        <v>1214.97</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.204800</v>
+        <v>-89.204800000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>7822.471119</v>
+        <v>7822.4711189999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.172909</v>
+        <v>2.1729090000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.769400</v>
+        <v>-84.769400000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>7832.586893</v>
+        <v>7832.5868929999997</v>
       </c>
       <c r="AK15" s="1">
         <v>2.175719</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.953400</v>
+        <v>-87.953400000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>7842.632221</v>
+        <v>7842.6322209999998</v>
       </c>
       <c r="AP15" s="1">
         <v>2.178509</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.410000</v>
+        <v>1234.4100000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-99.596300</v>
+        <v>-99.596299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>7853.703422</v>
+        <v>7853.7034219999996</v>
       </c>
       <c r="AU15" s="1">
         <v>2.181584</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.170000</v>
+        <v>1244.17</v>
       </c>
       <c r="AW15" s="1">
-        <v>-118.478000</v>
+        <v>-118.47799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>7864.717446</v>
+        <v>7864.7174459999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>2.184644</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.380000</v>
+        <v>1252.3800000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-135.578000</v>
+        <v>-135.578</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>7876.033808</v>
+        <v>7876.0338080000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.187787</v>
+        <v>2.1877870000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG15" s="1">
-        <v>-215.937000</v>
+        <v>-215.93700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>7886.945304</v>
+        <v>7886.9453039999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.190818</v>
+        <v>2.1908180000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.210000</v>
+        <v>1358.21</v>
       </c>
       <c r="BL15" s="1">
-        <v>-350.647000</v>
+        <v>-350.64699999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>7897.695587</v>
+        <v>7897.6955870000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.193804</v>
+        <v>2.1938040000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-571.860000</v>
+        <v>-571.86</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>7908.230613</v>
+        <v>7908.2306129999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.196731</v>
+        <v>2.1967310000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1596.380000</v>
+        <v>1596.38</v>
       </c>
       <c r="BV15" s="1">
-        <v>-823.628000</v>
+        <v>-823.62800000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>7919.769079</v>
+        <v>7919.7690789999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.199936</v>
+        <v>2.1999360000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1744.720000</v>
+        <v>1744.72</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1098.020000</v>
+        <v>-1098.02</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>7932.735994</v>
+        <v>7932.7359939999997</v>
       </c>
       <c r="CD15" s="1">
         <v>2.203538</v>
       </c>
       <c r="CE15" s="1">
-        <v>2157.250000</v>
+        <v>2157.25</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1769.350000</v>
+        <v>-1769.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>7760.468474</v>
+        <v>7760.4684740000002</v>
       </c>
       <c r="B16" s="1">
-        <v>2.155686</v>
+        <v>2.1556860000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1146.250000</v>
+        <v>1146.25</v>
       </c>
       <c r="D16" s="1">
-        <v>-254.519000</v>
+        <v>-254.51900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>7770.899803</v>
+        <v>7770.8998030000002</v>
       </c>
       <c r="G16" s="1">
-        <v>2.158583</v>
+        <v>2.1585830000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.150000</v>
+        <v>1166.1500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-213.370000</v>
+        <v>-213.37</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>7781.687789</v>
+        <v>7781.6877889999996</v>
       </c>
       <c r="L16" s="1">
-        <v>2.161580</v>
+        <v>2.1615799999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.000000</v>
+        <v>1193</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.098000</v>
+        <v>-148.09800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>7792.296223</v>
+        <v>7792.2962230000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.164527</v>
+        <v>2.1645270000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1200.420000</v>
+        <v>1200.42</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.498000</v>
+        <v>-126.498</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>7802.492977</v>
+        <v>7802.4929769999999</v>
       </c>
       <c r="V16" s="1">
-        <v>2.167359</v>
+        <v>2.1673589999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.330000</v>
+        <v>1207.33</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.936000</v>
+        <v>-105.93600000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>7812.586565</v>
+        <v>7812.5865649999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.170163</v>
+        <v>2.1701630000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.102000</v>
+        <v>-89.102000000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>7822.748598</v>
+        <v>7822.7485980000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.172986</v>
+        <v>2.1729859999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.530000</v>
+        <v>1219.53</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.805600</v>
+        <v>-84.805599999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>7832.939896</v>
+        <v>7832.9398959999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.175817</v>
+        <v>2.1758169999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.952400</v>
+        <v>-87.952399999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>7842.996316</v>
+        <v>7842.9963159999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.178610</v>
+        <v>2.1786099999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.390000</v>
+        <v>1234.3900000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-99.594200</v>
+        <v>-99.594200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>7854.066988</v>
+        <v>7854.0669879999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.181685</v>
+        <v>2.1816849999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-118.450000</v>
+        <v>-118.45</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>7865.432842</v>
+        <v>7865.4328420000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.184842</v>
+        <v>2.1848420000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.380000</v>
+        <v>1252.3800000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-135.587000</v>
+        <v>-135.58699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>7876.395391</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.187888</v>
+        <v>2.1878880000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1291.190000</v>
+        <v>1291.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-215.929000</v>
+        <v>-215.929</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>7887.319313</v>
@@ -4259,135 +4675,135 @@
         <v>2.190922</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL16" s="1">
-        <v>-350.608000</v>
+        <v>-350.608</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>7898.120658</v>
+        <v>7898.1206579999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.193922</v>
+        <v>2.1939220000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1468.330000</v>
+        <v>1468.33</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-571.843000</v>
+        <v>-571.84299999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>7908.640805</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.196845</v>
+        <v>2.1968450000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1596.380000</v>
+        <v>1596.38</v>
       </c>
       <c r="BV16" s="1">
-        <v>-823.638000</v>
+        <v>-823.63800000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>7920.519040</v>
+        <v>7920.5190400000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.200144</v>
+        <v>2.2001439999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1744.820000</v>
+        <v>1744.82</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1098.020000</v>
+        <v>-1098.02</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>7932.977565</v>
+        <v>7932.9775650000001</v>
       </c>
       <c r="CD16" s="1">
         <v>2.203605</v>
       </c>
       <c r="CE16" s="1">
-        <v>2157.850000</v>
+        <v>2157.85</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1768.850000</v>
+        <v>-1768.85</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>7760.811703</v>
+        <v>7760.8117030000003</v>
       </c>
       <c r="B17" s="1">
-        <v>2.155781</v>
+        <v>2.1557810000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1146.120000</v>
+        <v>1146.1199999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-254.447000</v>
+        <v>-254.447</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>7771.245018</v>
+        <v>7771.2450179999996</v>
       </c>
       <c r="G17" s="1">
-        <v>2.158679</v>
+        <v>2.1586789999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.560000</v>
+        <v>1166.56</v>
       </c>
       <c r="I17" s="1">
-        <v>-213.068000</v>
+        <v>-213.06800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>7782.099996</v>
+        <v>7782.0999959999999</v>
       </c>
       <c r="L17" s="1">
-        <v>2.161694</v>
+        <v>2.1616939999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1192.890000</v>
+        <v>1192.8900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.219000</v>
+        <v>-148.21899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>7792.591343</v>
+        <v>7792.5913430000001</v>
       </c>
       <c r="Q17" s="1">
         <v>2.164609</v>
       </c>
       <c r="R17" s="1">
-        <v>1200.360000</v>
+        <v>1200.3599999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.520000</v>
+        <v>-126.52</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>7802.795537</v>
@@ -4396,178 +4812,178 @@
         <v>2.167443</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.360000</v>
+        <v>1207.3599999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.020000</v>
+        <v>-106.02</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>7812.936740</v>
+        <v>7812.9367400000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.170260</v>
+        <v>2.1702599999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.880000</v>
+        <v>1214.8800000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.169200</v>
+        <v>-89.169200000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>7823.092822</v>
+        <v>7823.0928219999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.173081</v>
+        <v>2.1730809999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.760200</v>
+        <v>-84.760199999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>7833.288585</v>
+        <v>7833.2885850000002</v>
       </c>
       <c r="AK17" s="1">
         <v>2.175913</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.570000</v>
+        <v>1226.57</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.953200</v>
+        <v>-87.953199999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>7843.716970</v>
+        <v>7843.7169700000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.178810</v>
+        <v>2.1788099999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.370000</v>
+        <v>1234.3699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-99.583100</v>
+        <v>-99.583100000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>7854.793627</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.181887</v>
+        <v>2.1818870000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-118.472000</v>
+        <v>-118.47199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>7865.789934</v>
+        <v>7865.7899340000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.184942</v>
+        <v>2.1849419999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.390000</v>
+        <v>1252.3900000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-135.562000</v>
+        <v>-135.56200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>7876.757470</v>
+        <v>7876.7574699999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.187988</v>
+        <v>2.1879879999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1291.170000</v>
+        <v>1291.17</v>
       </c>
       <c r="BG17" s="1">
-        <v>-215.962000</v>
+        <v>-215.96199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>7887.697742</v>
+        <v>7887.6977420000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.191027</v>
+        <v>2.1910270000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.240000</v>
+        <v>1358.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-350.635000</v>
+        <v>-350.63499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>7898.819058</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.194116</v>
+        <v>2.1941160000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1468.320000</v>
+        <v>1468.32</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-571.744000</v>
+        <v>-571.74400000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>7909.412085</v>
+        <v>7909.4120849999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.197059</v>
+        <v>2.1970589999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1596.310000</v>
+        <v>1596.31</v>
       </c>
       <c r="BV17" s="1">
-        <v>-823.738000</v>
+        <v>-823.73800000000006</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>7920.640020</v>
+        <v>7920.6400199999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.200178</v>
+        <v>2.2001780000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1744.740000</v>
+        <v>1744.74</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1097.820000</v>
+        <v>-1097.82</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>7933.493845</v>
@@ -4576,1617 +4992,1617 @@
         <v>2.203748</v>
       </c>
       <c r="CE17" s="1">
-        <v>2158.340000</v>
+        <v>2158.34</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1767.490000</v>
+        <v>-1767.49</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>7761.233799</v>
+        <v>7761.2337989999996</v>
       </c>
       <c r="B18" s="1">
-        <v>2.155898</v>
+        <v>2.1558980000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1145.860000</v>
+        <v>1145.8599999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-254.540000</v>
+        <v>-254.54</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>7771.933961</v>
+        <v>7771.9339609999997</v>
       </c>
       <c r="G18" s="1">
         <v>2.158871</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.790000</v>
+        <v>1166.79</v>
       </c>
       <c r="I18" s="1">
-        <v>-213.350000</v>
+        <v>-213.35</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>7782.397105</v>
       </c>
       <c r="L18" s="1">
-        <v>2.161777</v>
+        <v>2.1617769999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.120000</v>
+        <v>1193.1199999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.932000</v>
+        <v>-147.93199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>7792.940535</v>
+        <v>7792.9405349999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.164706</v>
+        <v>2.1647059999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.270000</v>
+        <v>1200.27</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.531000</v>
+        <v>-126.53100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>7803.136784</v>
+        <v>7803.1367840000003</v>
       </c>
       <c r="V18" s="1">
         <v>2.167538</v>
       </c>
       <c r="W18" s="1">
-        <v>1207.270000</v>
+        <v>1207.27</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.956000</v>
+        <v>-105.956</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>7813.283938</v>
+        <v>7813.2839379999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.170357</v>
+        <v>2.1703570000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.369000</v>
+        <v>-89.369</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>7823.752997</v>
+        <v>7823.7529969999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.173265</v>
+        <v>2.1732649999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.780200</v>
+        <v>-84.780199999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>7833.988440</v>
+        <v>7833.9884400000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.176108</v>
+        <v>2.1761080000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.560000</v>
+        <v>1226.56</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.960800</v>
+        <v>-87.960800000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>7844.074121</v>
+        <v>7844.0741209999996</v>
       </c>
       <c r="AP18" s="1">
         <v>2.178909</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.370000</v>
+        <v>1234.3699999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-99.577600</v>
+        <v>-99.577600000000004</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>7855.185997</v>
+        <v>7855.1859969999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.181996</v>
+        <v>2.1819959999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-118.496000</v>
+        <v>-118.496</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>7866.150030</v>
+        <v>7866.1500299999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.185042</v>
+        <v>2.1850420000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.380000</v>
+        <v>1252.3800000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-135.581000</v>
+        <v>-135.58099999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>7877.425581</v>
+        <v>7877.4255810000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.188174</v>
+        <v>2.1881740000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG18" s="1">
-        <v>-215.917000</v>
+        <v>-215.917</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>7888.393163</v>
+        <v>7888.3931629999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.191220</v>
+        <v>2.1912199999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.190000</v>
+        <v>1358.19</v>
       </c>
       <c r="BL18" s="1">
-        <v>-350.654000</v>
+        <v>-350.654</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>7898.938097</v>
+        <v>7898.9380970000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.194149</v>
+        <v>2.1941489999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-571.801000</v>
+        <v>-571.80100000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>7909.934899</v>
+        <v>7909.9348989999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.197204</v>
+        <v>2.1972040000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1596.280000</v>
+        <v>1596.28</v>
       </c>
       <c r="BV18" s="1">
-        <v>-823.687000</v>
+        <v>-823.68700000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>7921.071084</v>
+        <v>7921.0710840000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.200298</v>
+        <v>2.2002980000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1744.660000</v>
+        <v>1744.66</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.980000</v>
+        <v>-1097.98</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>7934.016130</v>
+        <v>7934.01613</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.203893</v>
+        <v>2.2038929999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2155.870000</v>
+        <v>2155.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1768.840000</v>
+        <v>-1768.84</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>7761.507098</v>
       </c>
       <c r="B19" s="1">
-        <v>2.155974</v>
+        <v>2.1559740000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1146.460000</v>
+        <v>1146.46</v>
       </c>
       <c r="D19" s="1">
-        <v>-254.316000</v>
+        <v>-254.316</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>7772.281160</v>
+        <v>7772.2811600000005</v>
       </c>
       <c r="G19" s="1">
-        <v>2.158967</v>
+        <v>2.1589670000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.950000</v>
+        <v>1165.95</v>
       </c>
       <c r="I19" s="1">
-        <v>-213.148000</v>
+        <v>-213.148</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>7782.741351</v>
+        <v>7782.7413509999997</v>
       </c>
       <c r="L19" s="1">
-        <v>2.161873</v>
+        <v>2.1618729999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.000000</v>
+        <v>1193</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.226000</v>
+        <v>-148.226</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>7793.288258</v>
+        <v>7793.2882579999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.164802</v>
+        <v>2.1648019999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.220000</v>
+        <v>1200.22</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.395000</v>
+        <v>-126.395</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>7803.481503</v>
       </c>
       <c r="V19" s="1">
-        <v>2.167634</v>
+        <v>2.1676340000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.280000</v>
+        <v>1207.28</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.059000</v>
+        <v>-106.059</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>7813.982801</v>
+        <v>7813.9828010000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.170551</v>
+        <v>2.1705510000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1214.810000</v>
+        <v>1214.81</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.170700</v>
+        <v>-89.170699999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>7824.124003</v>
+        <v>7824.1240029999999</v>
       </c>
       <c r="AF19" s="1">
         <v>2.173368</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.759700</v>
+        <v>-84.759699999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>7834.334646</v>
+        <v>7834.3346460000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.176204</v>
+        <v>2.1762039999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.560000</v>
+        <v>1226.56</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.928400</v>
+        <v>-87.928399999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>7844.435675</v>
+        <v>7844.4356749999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.179010</v>
+        <v>2.1790099999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.370000</v>
+        <v>1234.3699999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-99.579600</v>
+        <v>-99.579599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>7855.551019</v>
+        <v>7855.5510190000005</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.182098</v>
+        <v>2.1820979999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-118.470000</v>
+        <v>-118.47</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>7866.816659</v>
+        <v>7866.8166590000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.185227</v>
+        <v>2.1852269999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.370000</v>
+        <v>1252.3699999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-135.588000</v>
+        <v>-135.58799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>7877.866223</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.188296</v>
+        <v>2.1882959999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG19" s="1">
-        <v>-215.937000</v>
+        <v>-215.93700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>7888.847455</v>
+        <v>7888.8474550000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.191347</v>
+        <v>2.1913469999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL19" s="1">
-        <v>-350.666000</v>
+        <v>-350.666</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>7899.362640</v>
+        <v>7899.3626400000003</v>
       </c>
       <c r="BO19" s="1">
         <v>2.194267</v>
       </c>
       <c r="BP19" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-571.880000</v>
+        <v>-571.88</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>7910.366386</v>
+        <v>7910.3663859999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.197324</v>
+        <v>2.1973240000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1596.190000</v>
+        <v>1596.19</v>
       </c>
       <c r="BV19" s="1">
-        <v>-823.694000</v>
+        <v>-823.69399999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>7921.493139</v>
+        <v>7921.4931390000002</v>
       </c>
       <c r="BY19" s="1">
         <v>2.200415</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1744.710000</v>
+        <v>1744.71</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1097.880000</v>
+        <v>-1097.8800000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>7934.552802</v>
+        <v>7934.5528020000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.204042</v>
+        <v>2.2040419999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>2158.390000</v>
+        <v>2158.39</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1767.970000</v>
+        <v>-1767.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>7761.850823</v>
+        <v>7761.8508229999998</v>
       </c>
       <c r="B20" s="1">
-        <v>2.156070</v>
+        <v>2.1560700000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1145.990000</v>
+        <v>1145.99</v>
       </c>
       <c r="D20" s="1">
-        <v>-254.410000</v>
+        <v>-254.41</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>7772.624392</v>
+        <v>7772.6243919999997</v>
       </c>
       <c r="G20" s="1">
         <v>2.159062</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.590000</v>
+        <v>1166.5899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-213.546000</v>
+        <v>-213.54599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>7783.087034</v>
+        <v>7783.0870340000001</v>
       </c>
       <c r="L20" s="1">
         <v>2.161969</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.180000</v>
+        <v>1193.18</v>
       </c>
       <c r="N20" s="1">
-        <v>-147.877000</v>
+        <v>-147.87700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>7793.987612</v>
+        <v>7793.9876119999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.164997</v>
+        <v>2.1649970000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.290000</v>
+        <v>1200.29</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.412000</v>
+        <v>-126.41200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>7804.170942</v>
+        <v>7804.1709419999997</v>
       </c>
       <c r="V20" s="1">
-        <v>2.167825</v>
+        <v>2.1678250000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.400000</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-105.882000</v>
+        <v>-105.88200000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>7814.331985</v>
+        <v>7814.3319849999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.170648</v>
+        <v>2.1706479999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1214.780000</v>
+        <v>1214.78</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.382800</v>
+        <v>-89.382800000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>7824.466752</v>
+        <v>7824.4667520000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.173463</v>
+        <v>2.1734629999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.765600</v>
+        <v>-84.765600000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>7834.681350</v>
+        <v>7834.6813499999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.176300</v>
+        <v>2.1762999999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.570000</v>
+        <v>1226.57</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.960400</v>
+        <v>-87.960400000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>7845.093864</v>
+        <v>7845.0938640000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.179193</v>
+        <v>2.1791930000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.390000</v>
+        <v>1234.3900000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-99.586600</v>
+        <v>-99.586600000000004</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>7856.232558</v>
+        <v>7856.2325579999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.182287</v>
+        <v>2.1822870000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-118.481000</v>
+        <v>-118.48099999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>7867.262059</v>
+        <v>7867.2620589999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.185351</v>
+        <v>2.1853509999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB20" s="1">
-        <v>-135.573000</v>
+        <v>-135.57300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>7878.226620</v>
+        <v>7878.2266200000004</v>
       </c>
       <c r="BE20" s="1">
         <v>2.188396</v>
       </c>
       <c r="BF20" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG20" s="1">
-        <v>-215.940000</v>
+        <v>-215.94</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>7889.251199</v>
+        <v>7889.2511990000003</v>
       </c>
       <c r="BJ20" s="1">
         <v>2.191459</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.210000</v>
+        <v>1358.21</v>
       </c>
       <c r="BL20" s="1">
-        <v>-350.637000</v>
+        <v>-350.637</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>7899.757985</v>
+        <v>7899.7579850000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.194377</v>
+        <v>2.1943769999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1468.360000</v>
+        <v>1468.36</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-571.822000</v>
+        <v>-571.822</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>7910.778562</v>
+        <v>7910.7785620000004</v>
       </c>
       <c r="BT20" s="1">
         <v>2.197438</v>
       </c>
       <c r="BU20" s="1">
-        <v>1596.270000</v>
+        <v>1596.27</v>
       </c>
       <c r="BV20" s="1">
-        <v>-823.746000</v>
+        <v>-823.74599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>7921.918211</v>
+        <v>7921.9182110000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.200533</v>
+        <v>2.2005330000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1744.680000</v>
+        <v>1744.68</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1098.160000</v>
+        <v>-1098.1600000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>7935.092449</v>
+        <v>7935.0924489999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.204192</v>
+        <v>2.2041919999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2156.170000</v>
+        <v>2156.17</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1767.220000</v>
+        <v>-1767.22</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>7762.192535</v>
+        <v>7762.1925350000001</v>
       </c>
       <c r="B21" s="1">
-        <v>2.156165</v>
+        <v>2.1561650000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1145.920000</v>
+        <v>1145.92</v>
       </c>
       <c r="D21" s="1">
-        <v>-254.409000</v>
+        <v>-254.40899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>7773.312839</v>
+        <v>7773.3128390000002</v>
       </c>
       <c r="G21" s="1">
-        <v>2.159254</v>
+        <v>2.1592539999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.270000</v>
+        <v>1166.27</v>
       </c>
       <c r="I21" s="1">
-        <v>-213.540000</v>
+        <v>-213.54</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>7783.774648</v>
+        <v>7783.7746479999996</v>
       </c>
       <c r="L21" s="1">
-        <v>2.162160</v>
+        <v>2.1621600000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.080000</v>
+        <v>1193.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.682000</v>
+        <v>-148.68199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>7794.336267</v>
+        <v>7794.3362669999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.165093</v>
+        <v>2.1650930000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.330000</v>
+        <v>1200.33</v>
       </c>
       <c r="S21" s="1">
-        <v>-126.454000</v>
+        <v>-126.45399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>7804.514708</v>
+        <v>7804.5147079999997</v>
       </c>
       <c r="V21" s="1">
-        <v>2.167921</v>
+        <v>2.1679210000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1207.240000</v>
+        <v>1207.24</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.021000</v>
+        <v>-106.021</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>7814.679680</v>
+        <v>7814.6796800000002</v>
       </c>
       <c r="AA21" s="1">
         <v>2.170744</v>
       </c>
       <c r="AB21" s="1">
-        <v>1214.880000</v>
+        <v>1214.8800000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.174500</v>
+        <v>-89.174499999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>7825.110051</v>
+        <v>7825.1100509999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.173642</v>
+        <v>2.1736420000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.767600</v>
+        <v>-84.767600000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>7835.336567</v>
+        <v>7835.3365670000003</v>
       </c>
       <c r="AK21" s="1">
         <v>2.176482</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.966400</v>
+        <v>-87.966399999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>7845.553192</v>
+        <v>7845.5531920000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.179320</v>
+        <v>2.1793200000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.370000</v>
+        <v>1234.3699999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-99.581400</v>
+        <v>-99.581400000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>7856.679913</v>
+        <v>7856.6799129999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.182411</v>
+        <v>2.1824110000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-118.492000</v>
+        <v>-118.492</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>7867.618218</v>
+        <v>7867.6182179999996</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.185450</v>
+        <v>2.1854499999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB21" s="1">
-        <v>-135.576000</v>
+        <v>-135.57599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>7878.586756</v>
+        <v>7878.5867559999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.188496</v>
+        <v>2.1884960000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG21" s="1">
-        <v>-215.945000</v>
+        <v>-215.94499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>7889.625183</v>
+        <v>7889.6251830000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.191563</v>
+        <v>2.1915629999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.210000</v>
+        <v>1358.21</v>
       </c>
       <c r="BL21" s="1">
-        <v>-350.637000</v>
+        <v>-350.637</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>7900.179551</v>
+        <v>7900.1795510000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.194494</v>
+        <v>2.1944940000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1468.390000</v>
+        <v>1468.39</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-571.837000</v>
+        <v>-571.83699999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>7911.210578</v>
+        <v>7911.2105780000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.197558</v>
+        <v>2.1975579999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1596.050000</v>
+        <v>1596.05</v>
       </c>
       <c r="BV21" s="1">
-        <v>-823.759000</v>
+        <v>-823.75900000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>7922.345762</v>
+        <v>7922.3457619999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.200652</v>
+        <v>2.2006519999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1744.780000</v>
+        <v>1744.78</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1098.000000</v>
+        <v>-1098</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>7935.630644</v>
+        <v>7935.6306439999998</v>
       </c>
       <c r="CD21" s="1">
         <v>2.204342</v>
       </c>
       <c r="CE21" s="1">
-        <v>2157.060000</v>
+        <v>2157.06</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1769.190000</v>
+        <v>-1769.19</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>7762.875549</v>
+        <v>7762.8755490000003</v>
       </c>
       <c r="B22" s="1">
-        <v>2.156354</v>
+        <v>2.1563539999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1146.170000</v>
+        <v>1146.17</v>
       </c>
       <c r="D22" s="1">
-        <v>-254.565000</v>
+        <v>-254.565</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>7773.658755</v>
+        <v>7773.6587550000004</v>
       </c>
       <c r="G22" s="1">
-        <v>2.159350</v>
+        <v>2.1593499999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.220000</v>
+        <v>1166.22</v>
       </c>
       <c r="I22" s="1">
-        <v>-212.987000</v>
+        <v>-212.98699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>7784.124633</v>
+        <v>7784.1246330000004</v>
       </c>
       <c r="L22" s="1">
-        <v>2.162257</v>
+        <v>2.1622569999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.170000</v>
+        <v>1193.17</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.127000</v>
+        <v>-148.12700000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>7794.684987</v>
+        <v>7794.6849869999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.165190</v>
+        <v>2.1651899999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1200.260000</v>
+        <v>1200.26</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.506000</v>
+        <v>-126.506</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>7804.858894</v>
       </c>
       <c r="V22" s="1">
-        <v>2.168016</v>
+        <v>2.1680160000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1207.400000</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.970000</v>
+        <v>-105.97</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>7815.329936</v>
+        <v>7815.3299360000001</v>
       </c>
       <c r="AA22" s="1">
         <v>2.170925</v>
       </c>
       <c r="AB22" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.225700</v>
+        <v>-89.225700000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>7825.493458</v>
+        <v>7825.4934579999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.173748</v>
+        <v>2.1737479999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.766200</v>
+        <v>-84.766199999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>7835.726916</v>
+        <v>7835.7269159999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.176591</v>
+        <v>2.1765910000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.560000</v>
+        <v>1226.56</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.951000</v>
+        <v>-87.950999999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>7845.908791</v>
+        <v>7845.9087909999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.179419</v>
+        <v>2.1794190000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.380000</v>
+        <v>1234.3800000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-99.572200</v>
+        <v>-99.572199999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>7857.045993</v>
+        <v>7857.0459929999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.182513</v>
+        <v>2.1825130000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-118.500000</v>
+        <v>-118.5</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>7867.975306</v>
+        <v>7867.9753060000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>2.185549</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.350000</v>
+        <v>1252.3499999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-135.581000</v>
+        <v>-135.58099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>7879.007852</v>
+        <v>7879.0078519999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.188613</v>
+        <v>2.1886130000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1291.160000</v>
+        <v>1291.1600000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-215.931000</v>
+        <v>-215.93100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>7890.022477</v>
+        <v>7890.0224770000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.191673</v>
+        <v>2.1916730000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.180000</v>
+        <v>1358.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-350.636000</v>
+        <v>-350.63600000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>7900.577839</v>
+        <v>7900.5778389999996</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.194605</v>
+        <v>2.1946050000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1468.330000</v>
+        <v>1468.33</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-571.817000</v>
+        <v>-571.81700000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>7911.635682</v>
+        <v>7911.6356820000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.197677</v>
+        <v>2.1976770000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1596.230000</v>
+        <v>1596.23</v>
       </c>
       <c r="BV22" s="1">
-        <v>-823.732000</v>
+        <v>-823.73199999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>7922.758433</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.200766</v>
+        <v>2.2007659999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1744.680000</v>
+        <v>1744.68</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1097.890000</v>
+        <v>-1097.8900000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>7936.171744</v>
+        <v>7936.1717440000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.204492</v>
+        <v>2.2044920000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2157.530000</v>
+        <v>2157.5300000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1766.630000</v>
+        <v>-1766.63</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>7763.220245</v>
+        <v>7763.2202450000004</v>
       </c>
       <c r="B23" s="1">
-        <v>2.156450</v>
+        <v>2.15645</v>
       </c>
       <c r="C23" s="1">
-        <v>1145.960000</v>
+        <v>1145.96</v>
       </c>
       <c r="D23" s="1">
-        <v>-254.414000</v>
+        <v>-254.41399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>7774.001815</v>
+        <v>7774.0018149999996</v>
       </c>
       <c r="G23" s="1">
-        <v>2.159445</v>
+        <v>2.1594449999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.010000</v>
+        <v>1166.01</v>
       </c>
       <c r="I23" s="1">
-        <v>-213.611000</v>
+        <v>-213.61099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>7784.470345</v>
+        <v>7784.4703449999997</v>
       </c>
       <c r="L23" s="1">
         <v>2.162353</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.140000</v>
+        <v>1193.1400000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.221000</v>
+        <v>-148.221</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>7795.342154</v>
+        <v>7795.3421539999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.165373</v>
+        <v>2.1653730000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.428000</v>
+        <v>-126.428</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>7805.504189</v>
+        <v>7805.5041890000002</v>
       </c>
       <c r="V23" s="1">
         <v>2.168196</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.250000</v>
+        <v>1207.25</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.999000</v>
+        <v>-105.999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>7815.725743</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.171035</v>
+        <v>2.1710349999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.146100</v>
+        <v>-89.146100000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>7825.840690</v>
+        <v>7825.84069</v>
       </c>
       <c r="AF23" s="1">
         <v>2.173845</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.767700</v>
+        <v>-84.767700000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>7836.078084</v>
+        <v>7836.0780839999998</v>
       </c>
       <c r="AK23" s="1">
         <v>2.176688</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.950100</v>
+        <v>-87.950100000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>7846.273351</v>
+        <v>7846.2733509999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.179520</v>
+        <v>2.1795200000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.380000</v>
+        <v>1234.3800000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-99.576300</v>
+        <v>-99.576300000000003</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>7857.409559</v>
+        <v>7857.4095589999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.182614</v>
+        <v>2.1826140000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-118.494000</v>
+        <v>-118.494</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>7868.389993</v>
+        <v>7868.3899929999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.185664</v>
+        <v>2.1856640000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.380000</v>
+        <v>1252.3800000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-135.570000</v>
+        <v>-135.57</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>7879.308905</v>
+        <v>7879.3089049999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.188697</v>
+        <v>2.1886969999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG23" s="1">
-        <v>-215.940000</v>
+        <v>-215.94</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>7890.402908</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.191779</v>
+        <v>2.1917789999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.190000</v>
+        <v>1358.19</v>
       </c>
       <c r="BL23" s="1">
-        <v>-350.606000</v>
+        <v>-350.60599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>7901.000430</v>
+        <v>7901.0004300000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.194722</v>
+        <v>2.1947220000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-571.801000</v>
+        <v>-571.80100000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>7912.050303</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.197792</v>
+        <v>2.1977920000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1596.140000</v>
+        <v>1596.14</v>
       </c>
       <c r="BV23" s="1">
-        <v>-823.740000</v>
+        <v>-823.74</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>7923.212279</v>
+        <v>7923.2122790000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.200892</v>
+        <v>2.2008920000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1744.620000</v>
+        <v>1744.62</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1098.010000</v>
+        <v>-1098.01</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>7936.711391</v>
+        <v>7936.7113909999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.204642</v>
+        <v>2.2046420000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2156.170000</v>
+        <v>2156.17</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1768.240000</v>
+        <v>-1768.24</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>7763.559720</v>
+        <v>7763.5597200000002</v>
       </c>
       <c r="B24" s="1">
-        <v>2.156544</v>
+        <v>2.1565439999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1146.200000</v>
+        <v>1146.2</v>
       </c>
       <c r="D24" s="1">
-        <v>-254.155000</v>
+        <v>-254.155</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>7774.648069</v>
+        <v>7774.6480689999999</v>
       </c>
       <c r="G24" s="1">
         <v>2.159624</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.970000</v>
+        <v>1165.97</v>
       </c>
       <c r="I24" s="1">
-        <v>-213.403000</v>
+        <v>-213.40299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>7785.125561</v>
+        <v>7785.1255609999998</v>
       </c>
       <c r="L24" s="1">
-        <v>2.162535</v>
+        <v>2.1625350000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1192.540000</v>
+        <v>1192.54</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.080000</v>
+        <v>-148.08000000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>7795.731017</v>
+        <v>7795.7310170000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.165481</v>
+        <v>2.1654810000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.090000</v>
+        <v>1200.0899999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.439000</v>
+        <v>-126.43899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>7805.893086</v>
@@ -6195,210 +6611,210 @@
         <v>2.168304</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-105.886000</v>
+        <v>-105.886</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>7816.076415</v>
+        <v>7816.0764150000005</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.171132</v>
+        <v>2.1711320000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.261500</v>
+        <v>-89.261499999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>7826.180945</v>
+        <v>7826.1809450000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.173939</v>
+        <v>2.1739389999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.712600</v>
+        <v>-84.712599999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>7836.425781</v>
+        <v>7836.4257809999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.176785</v>
+        <v>2.1767850000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.560000</v>
+        <v>1226.56</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.986400</v>
+        <v>-87.986400000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>7846.685644</v>
+        <v>7846.6856440000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.179635</v>
+        <v>2.1796350000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.370000</v>
+        <v>1234.3699999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-99.584000</v>
+        <v>-99.584000000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>7857.848983</v>
+        <v>7857.8489829999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.182736</v>
+        <v>2.1827359999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.120000</v>
+        <v>1244.1199999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-118.451000</v>
+        <v>-118.45099999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>7868.692027</v>
+        <v>7868.6920270000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.185748</v>
+        <v>2.1857479999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.370000</v>
+        <v>1252.3699999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-135.565000</v>
+        <v>-135.565</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>7879.670970</v>
+        <v>7879.6709700000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.188797</v>
+        <v>2.1887970000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG24" s="1">
-        <v>-215.909000</v>
+        <v>-215.90899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>7890.779373</v>
+        <v>7890.7793730000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.191883</v>
+        <v>2.1918829999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL24" s="1">
-        <v>-350.645000</v>
+        <v>-350.64499999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>7901.395278</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.194832</v>
+        <v>2.1948319999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1468.350000</v>
+        <v>1468.35</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-571.787000</v>
+        <v>-571.78700000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>7912.480336</v>
+        <v>7912.4803359999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.197911</v>
+        <v>2.1979109999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1596.080000</v>
+        <v>1596.08</v>
       </c>
       <c r="BV24" s="1">
-        <v>-823.763000</v>
+        <v>-823.76300000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>7923.662145</v>
+        <v>7923.6621450000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.201017</v>
+        <v>2.2010169999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1744.640000</v>
+        <v>1744.64</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1097.980000</v>
+        <v>-1097.98</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>7937.250544</v>
+        <v>7937.2505440000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.204792</v>
+        <v>2.2047919999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2158.740000</v>
+        <v>2158.7399999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1767.460000</v>
+        <v>-1767.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>7764.208772</v>
       </c>
       <c r="B25" s="1">
-        <v>2.156725</v>
+        <v>2.1567249999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1146.040000</v>
+        <v>1146.04</v>
       </c>
       <c r="D25" s="1">
-        <v>-254.107000</v>
+        <v>-254.107</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>7775.033461</v>
@@ -6407,497 +6823,498 @@
         <v>2.159732</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.570000</v>
+        <v>1166.57</v>
       </c>
       <c r="I25" s="1">
-        <v>-212.881000</v>
+        <v>-212.881</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>7785.507724</v>
+        <v>7785.5077240000001</v>
       </c>
       <c r="L25" s="1">
-        <v>2.162641</v>
+        <v>2.1626409999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1192.770000</v>
+        <v>1192.77</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.222000</v>
+        <v>-148.22200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>7796.080697</v>
+        <v>7796.0806970000003</v>
       </c>
       <c r="Q25" s="1">
         <v>2.165578</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.090000</v>
+        <v>1200.0899999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.336000</v>
+        <v>-126.336</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>7806.239260</v>
+        <v>7806.2392600000003</v>
       </c>
       <c r="V25" s="1">
-        <v>2.168400</v>
+        <v>2.1684000000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1207.190000</v>
+        <v>1207.19</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.981000</v>
+        <v>-105.98099999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>7816.424110</v>
+        <v>7816.4241099999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.171229</v>
+        <v>2.1712289999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1214.890000</v>
+        <v>1214.8900000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.254400</v>
+        <v>-89.254400000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>7826.580689</v>
+        <v>7826.5806890000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.174050</v>
+        <v>2.1740499999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.771400</v>
+        <v>-84.7714</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>7836.853194</v>
+        <v>7836.8531940000003</v>
       </c>
       <c r="AK25" s="1">
         <v>2.176904</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.550000</v>
+        <v>1226.55</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.961600</v>
+        <v>-87.961600000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>7846.991062</v>
+        <v>7846.9910620000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.179720</v>
+        <v>2.1797200000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.400000</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-99.598500</v>
+        <v>-99.598500000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>7858.138647</v>
+        <v>7858.1386469999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.182816</v>
+        <v>2.1828159999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-118.483000</v>
+        <v>-118.483</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>7869.053113</v>
+        <v>7869.0531129999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>2.185848</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.370000</v>
+        <v>1252.3699999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-135.564000</v>
+        <v>-135.56399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>7880.032738</v>
+        <v>7880.0327379999999</v>
       </c>
       <c r="BE25" s="1">
         <v>2.188898</v>
       </c>
       <c r="BF25" s="1">
-        <v>1291.170000</v>
+        <v>1291.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-215.943000</v>
+        <v>-215.94300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>7891.153356</v>
+        <v>7891.1533559999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.191987</v>
+        <v>2.1919870000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL25" s="1">
-        <v>-350.624000</v>
+        <v>-350.62400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>7901.818830</v>
+        <v>7901.8188300000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.194950</v>
+        <v>2.19495</v>
       </c>
       <c r="BP25" s="1">
-        <v>1468.390000</v>
+        <v>1468.39</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-571.795000</v>
+        <v>-571.79499999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>7912.908382</v>
+        <v>7912.9083819999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.198030</v>
+        <v>2.1980300000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1596.090000</v>
+        <v>1596.09</v>
       </c>
       <c r="BV25" s="1">
-        <v>-823.743000</v>
+        <v>-823.74300000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>7924.117007</v>
+        <v>7924.1170069999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.201144</v>
+        <v>2.2011440000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1744.770000</v>
+        <v>1744.77</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1097.990000</v>
+        <v>-1097.99</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>7937.789694</v>
+        <v>7937.7896940000001</v>
       </c>
       <c r="CD25" s="1">
         <v>2.204942</v>
       </c>
       <c r="CE25" s="1">
-        <v>2156.670000</v>
+        <v>2156.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1766.680000</v>
+        <v>-1766.68</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>7764.584776</v>
+        <v>7764.5847759999997</v>
       </c>
       <c r="B26" s="1">
-        <v>2.156829</v>
+        <v>2.1568290000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1146.070000</v>
+        <v>1146.07</v>
       </c>
       <c r="D26" s="1">
-        <v>-254.539000</v>
+        <v>-254.53899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>7775.368260</v>
+        <v>7775.3682600000002</v>
       </c>
       <c r="G26" s="1">
-        <v>2.159825</v>
+        <v>2.1598250000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.960000</v>
+        <v>1166.96</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.344000</v>
+        <v>-213.34399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>7785.852240</v>
+        <v>7785.8522400000002</v>
       </c>
       <c r="L26" s="1">
-        <v>2.162737</v>
+        <v>2.1627369999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1192.770000</v>
+        <v>1192.77</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.525000</v>
+        <v>-148.52500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>7796.428889</v>
+        <v>7796.4288889999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.165675</v>
+        <v>2.1656749999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1200.090000</v>
+        <v>1200.0899999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.406000</v>
+        <v>-126.40600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>7806.810651</v>
+        <v>7806.8106509999998</v>
       </c>
       <c r="V26" s="1">
-        <v>2.168559</v>
+        <v>2.1685590000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1207.300000</v>
+        <v>1207.3</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.008000</v>
+        <v>-106.008</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>7816.850670</v>
+        <v>7816.8506699999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.171347</v>
+        <v>2.1713469999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1214.770000</v>
+        <v>1214.77</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.225700</v>
+        <v>-89.225700000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>7826.872336</v>
+        <v>7826.8723360000004</v>
       </c>
       <c r="AF26" s="1">
         <v>2.174131</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.530000</v>
+        <v>1219.53</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.771700</v>
+        <v>-84.771699999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>7837.134067</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.176982</v>
+        <v>2.1769820000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.957100</v>
+        <v>-87.957099999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>7847.352333</v>
+        <v>7847.3523329999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.179820</v>
+        <v>2.1798199999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.380000</v>
+        <v>1234.3800000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-99.601300</v>
+        <v>-99.601299999999995</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>7858.501754</v>
+        <v>7858.5017539999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.182917</v>
+        <v>2.1829170000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-118.476000</v>
+        <v>-118.476</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>7869.412216</v>
+        <v>7869.4122159999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.185948</v>
+        <v>2.1859479999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.400000</v>
+        <v>1252.4000000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-135.599000</v>
+        <v>-135.59899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>7880.755226</v>
+        <v>7880.7552260000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.189099</v>
+        <v>2.1890990000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG26" s="1">
-        <v>-215.942000</v>
+        <v>-215.94200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>7891.913228</v>
+        <v>7891.9132280000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.192198</v>
+        <v>2.1921979999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-350.641000</v>
+        <v>-350.64100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>7902.210702</v>
+        <v>7902.2107020000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.195059</v>
+        <v>2.1950590000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1468.360000</v>
+        <v>1468.36</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-571.846000</v>
+        <v>-571.846</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>7913.319566</v>
+        <v>7913.3195660000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.198144</v>
+        <v>2.1981440000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1596.050000</v>
+        <v>1596.05</v>
       </c>
       <c r="BV26" s="1">
-        <v>-823.740000</v>
+        <v>-823.74</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>7924.564863</v>
+        <v>7924.5648629999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.201268</v>
+        <v>2.2012679999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1744.790000</v>
+        <v>1744.79</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1097.800000</v>
+        <v>-1097.8</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>7938.619500</v>
+        <v>7938.6194999999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.205172</v>
+        <v>2.2051720000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2158.400000</v>
+        <v>2158.4</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1767.290000</v>
+        <v>-1767.29</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>